--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2610.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2610.xlsx
@@ -354,7 +354,7 @@
         <v>1.568489782190399</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.805413433441381</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2610.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2610.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7913117340278815</v>
+        <v>1.315674185752869</v>
       </c>
       <c r="B1">
-        <v>1.568489782190399</v>
+        <v>2.104238271713257</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.760006904602051</v>
       </c>
       <c r="D1">
-        <v>1.805413433441381</v>
+        <v>3.516060829162598</v>
       </c>
       <c r="E1">
-        <v>0.9206014821218848</v>
+        <v>1.3377525806427</v>
       </c>
     </row>
   </sheetData>
